--- a/员工表.xlsx
+++ b/员工表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA94335-5B75-4F05-93B1-E73159191A3D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A73D302-818A-49C1-B5CA-96B689F9D74E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,10 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>员工属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>轮入支局</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -100,6 +96,9 @@
   <si>
     <t>王五</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用工性质</t>
   </si>
 </sst>
 </file>
@@ -426,8 +425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -440,94 +439,94 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
